--- a/medicine/Enfance/Michel-Julien_Naudy/Michel-Julien_Naudy.xlsx
+++ b/medicine/Enfance/Michel-Julien_Naudy/Michel-Julien_Naudy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel-Julien Naudy, né le 28 avril 1944 à Toulouse (Haute-Garonne), est un écrivain français, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études, notamment de latin et de grec, Michel-Julien Naudy occupe un poste en usine dans l'électronique à partir de 1971. Il travaille de préférence la nuit, ce qui lui laisse du temps pour l’écriture. Après son licenciement économique à la fin des années 1980, il prend la gérance du cinéma d'art et d'essai Le Central à Colomiers.
 Après des chroniques de science-fiction pour la revue Horizons du fantastique, il publie son premier roman Côte sanguine en 1985. Il fait également paraître des romans pour la jeunesse, principalement chez Syros.
@@ -546,20 +560,127 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Côte sanguine, Gallimard, Série noire no 1988, 1985
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Côte sanguine, Gallimard, Série noire no 1988, 1985
 Équipe de nuit, Publisud, 1988 ; réédition, Gallimard, Série noire no 2516, 1998
-Le Pas du Parisien, Gallimard, Série noire no 2678, 2003
-Littérature d'enfance et de jeunesse
-Toyota barraka, Syros, Souris noire no 6, 1986
+Le Pas du Parisien, Gallimard, Série noire no 2678, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toyota barraka, Syros, Souris noire no 6, 1986
 L'Argent du mouton, Syros, Souris noire plus no 1, 1988
 Jour de zouave, La Farandole, 1990
-Macache oualou, Syros, Souris noire no 48, 1991
-Recueil de nouvelles
-Toulouse rouge et passe, Ombres, 2000
-Zone frontière, Figueras, Mare nostrum, 2009
-Nouvelles
-Le Triangle rose, dans Murs, Murs no 10, novembre 1985
+Macache oualou, Syros, Souris noire no 48, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toulouse rouge et passe, Ombres, 2000
+Zone frontière, Figueras, Mare nostrum, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Triangle rose, dans Murs, Murs no 10, novembre 1985
 La Paire de Pampelune, dans Mystères 87, Le Livre de poche no 6365, 1987
 Tomaï des éléphants, dans Série B no 16, 1988
 Soir en ville, dans Black Exit to 68, La Brèche, 1988
@@ -567,39 +688,75 @@
 La Roche noire, dans Sous la robe erre le noir, Le Mascaret, 1989
 Tarifa, cinq heures, dans Mystère 90, Le Masque grand format, 1990
 Postite, Polar no 13 1994
-Maraudeur étranger, dans Toulouse du rose au noir, Autrement, 2000
-Autres
-Dix-huit petites chansons pour la patrie amère, Fédérop, 1992
+Maraudeur étranger, dans Toulouse du rose au noir, Autrement, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Julien_Naudy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dix-huit petites chansons pour la patrie amère, Fédérop, 1992
 Douze poèmes pour Cavafy, Fédérop, 1998
 Pièces d’usine, Les Passés simples, 2006</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Michel-Julien_Naudy</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel-Julien_Naudy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 412-413.
 Claude Mesplède, Les années "Série noire" bibliographie critique d'une collection policière, vol. 5 : 1982-1995, Amiens, Encrage, coll. « Travaux » (no 36), 2000.</t>
